--- a/Statistics/ASSESSMENT/assessment 2.xlsx
+++ b/Statistics/ASSESSMENT/assessment 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83e7776c11afa0c2/Documents/GitHub/parthivshah06/Statistics/ASSESSMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64C0D416-D536-4CCC-9C3E-018A0716AE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{64C0D416-D536-4CCC-9C3E-018A0716AE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20436C5-1547-4B75-B36A-0B0691B7E272}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A246EB73-2031-48D1-8AF7-6E55F4FEAA82}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -474,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3587EB50-23BF-4AF3-AFF9-C2A01109F84E}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Statistics/ASSESSMENT/assessment 2.xlsx
+++ b/Statistics/ASSESSMENT/assessment 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83e7776c11afa0c2/Documents/GitHub/parthivshah06/Statistics/ASSESSMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{64C0D416-D536-4CCC-9C3E-018A0716AE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E20436C5-1547-4B75-B36A-0B0691B7E272}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CF00DF-1ACA-4652-8120-C71671548B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A246EB73-2031-48D1-8AF7-6E55F4FEAA82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Question 1</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t xml:space="preserve">       boys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there is  significant different between boys and girls with respect to intelligence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when p value is &lt;00.5 not accept </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gils </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard deviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">size </t>
   </si>
 </sst>
 </file>
@@ -93,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +124,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,6 +194,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,47 +512,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3587EB50-23BF-4AF3-AFF9-C2A01109F84E}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>80</v>
       </c>
       <c r="C5">
         <v>80</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="K5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="8">
+        <v>89</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>82</v>
       </c>
       <c r="C6">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="8">
+        <v>82</v>
+      </c>
+      <c r="M6" s="8">
+        <v>9</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>90</v>
       </c>
@@ -518,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>85</v>
       </c>
@@ -535,7 +625,7 @@
         <v>90.924369747899163</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>81</v>
       </c>
@@ -552,7 +642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>83</v>
       </c>
@@ -569,7 +659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>84</v>
       </c>
@@ -583,21 +673,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>88</v>
       </c>
       <c r="C12">
         <v>88</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>-2.4213692350274618</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>75</v>
       </c>
@@ -611,7 +702,7 @@
         <v>7.7310814635823677E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>78</v>
       </c>
@@ -625,21 +716,22 @@
         <v>1.6448536269514715</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>85</v>
       </c>
       <c r="C15">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>1.5462162927164735E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>89</v>
       </c>
@@ -654,7 +746,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>87</v>
       </c>
@@ -662,7 +754,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>87</v>
       </c>
@@ -670,7 +762,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>78</v>
       </c>
@@ -678,15 +770,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>88</v>
       </c>
       <c r="C20">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>85</v>
       </c>
@@ -694,15 +793,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>89</v>
       </c>
       <c r="C22">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>88</v>
       </c>
@@ -710,7 +813,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>85</v>
       </c>
@@ -718,7 +821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>98</v>
       </c>
@@ -726,7 +829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>82</v>
       </c>
@@ -734,7 +837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>102</v>
       </c>
@@ -742,7 +845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>88</v>
       </c>
@@ -750,7 +853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>78</v>
       </c>
@@ -758,7 +861,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>88</v>
       </c>
@@ -766,7 +869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>89</v>
       </c>
@@ -774,7 +877,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>96</v>
       </c>
